--- a/report/allerganpro_responses.xlsx
+++ b/report/allerganpro_responses.xlsx
@@ -1,11 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="India" sheetId="2" r:id="rId2"/>
-    <sheet name="Colombia" sheetId="3" r:id="rId3"/>
+    <sheet name="Colombia" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -399,23 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -428,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.allerganpro.com/in/en.html</v>
+        <v>https://www.allerganpro.com/co/es.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -436,15 +420,15 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/idp/login?app=0sp9E0000008Owt&amp;AID=&amp;locale=en.html-IN</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
       </c>
       <c r="B3">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AuthRouterMVN?startURL=%2Fidp%2Flogin%3Fapp%3D0sp9E0000008Owt%26AID%3D%26locale%3Den.html-IN</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -452,7 +436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login?startURL=%2FAppRouterMVN</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -460,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Locale?startURL=%2FAppRouterMVN</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -468,7 +452,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/perf/stub.js</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.js</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -476,7 +460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1699262264250/ui-sfdc-javascript-impl/SfdcCore.js</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.css</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -484,7 +468,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/VFState.js</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -492,7 +476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/picklist4.js</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -500,7 +484,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/NetworkTracking.js</v>
+        <v>https://www.allerganpro.com/content/dam/abbvie-pro/co/abbvieprologo/AbbviePRO.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -508,7 +492,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1589314309000/FontAwesome/css/all.css</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -516,7 +500,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/O7S9wEJti4WiUNZnC3Leo/8de3a4461df6aa3cc20f78350a295eaa/bootstrap.min.css</v>
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -524,7 +508,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/59tbS4kotYibm6N8c8hFeS/9f073bb5337c6768b053a8cf7dc4581d/bootstrap-material-design.css</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -532,7 +516,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/4mNGwAc9sWFCL8srhu630y/d34552ede25a6b593db2a3c7276df538/abbvie.css</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -540,7 +524,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/faces/a4j/g/3_3_3.Finalorg.ajax4jsf.javascript.AjaxScript?rel=1717508047000</v>
+        <v>https://www.allerganpro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -548,7 +532,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Roboto:wght@300;400;500;700&amp;display=swap</v>
+        <v>https://www.allerganpro.com/content/dam/allergan-pro/colombia/home/Home_Articulos01.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -556,7 +540,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery-3.7.1.min.js</v>
+        <v>https://consent.trustarc.com/v2/notice/hvz0wu</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -564,7 +548,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap-material-design.min.js</v>
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -572,7 +556,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/css/bootstrap.min.css</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -580,7 +564,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/popper.min.js</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -588,7 +572,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap.min.js</v>
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -596,7 +580,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/arrive.min.js</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -604,15 +588,15 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/snackbar.min.js</v>
+        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr:content/header/header_area/image-extension/item_1.coreimg.png/1682019219951-AbbviePRO.png</v>
       </c>
       <c r="B24">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery.validate.min.js</v>
+        <v>https://www.allerganpro.com/content/dam/allergan-pro/colombia/home/New%20banner%20Home%20Allergan%20pro.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -620,7 +604,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.googletagmanager.com/gtm.js?id=GTM-TDBKR9W</v>
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=hvz0wu&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;category=</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -628,15 +612,15 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7341351336190589&amp;session=7011954c-8956-452e-bd29-6f8cbe57a2dc&amp;userType=NEW</v>
       </c>
       <c r="B27">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmWUlfBBc4.woff2</v>
+        <v>https://www.allerganpro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro/co/es/jcr:content</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -644,7 +628,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmEU9fBBc4.woff2</v>
+        <v>https://www.allerganpro.com/content/dam/allergan-pro/colombia/home/Home_Articulos02.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -652,7 +636,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOmCnqEu92Fr1Mu4WxKOzY.woff2</v>
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -660,269 +644,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://consent.trustarc.com/v2/notice/lkd017</v>
-      </c>
-      <c r="B31">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B31"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://www.allerganpro.com/co/es.html</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.js</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.css</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>https://www.allerganpro.com/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>https://www.allerganpro.com/content/dam/abbvie-pro/co/abbvieprologo/AbbviePRO.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
-      </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>https://www.allerganpro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro/co/es/jcr:content</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
         <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>https://www.allerganpro.com/content/dam/allergan-pro/colombia/home/New%20banner%20Home%20Allergan%20pro.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>https://www.googletagmanager.com/gtm.js?id=GTM-W5VM4NC</v>
-      </c>
-      <c r="B22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>https://consent.trustarc.com/v2/notice/hvz0wu</v>
-      </c>
-      <c r="B23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
-      </c>
-      <c r="B24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
-      </c>
-      <c r="B25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-4TCFB5EFHJ&amp;l=dataLayer&amp;cx=c</v>
-      </c>
-      <c r="B26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.780058019749633&amp;session=853237b5-89a5-4849-ae5a-20ce50cec750&amp;userType=NEW</v>
-      </c>
-      <c r="B27">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8865315957364424&amp;session=853237b5-89a5-4849-ae5a-20ce50cec750&amp;userType=NEW</v>
-      </c>
-      <c r="B28">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>https://www.allerganpro.com/content/dam/allergan-pro/colombia/home/Home_Articulos01.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr:content/header/header_area/image-extension/item_1.coreimg.png/1682019219951-AbbviePRO.png</v>
-      </c>
-      <c r="B30">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=hvz0wu&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;category=</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -938,15 +660,15 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.9601401729781998&amp;session=7011954c-8956-452e-bd29-6f8cbe57a2dc&amp;userType=NEW</v>
       </c>
       <c r="B33">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -954,7 +676,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -962,7 +684,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr%3acontent/header/header_area/image-extension/item_1.coreimg.png/1707333003504.png</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -970,7 +692,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.allerganpro.com/content/dam/allergan-pro/colombia/home/Home_Articulos02.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1637251107888-Home_Articulos01.png</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -978,7 +700,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr%3acontent/header/header_area/image-extension/item_1.coreimg.png/1707333003504.png</v>
+        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par2-5050col/image_extension_copy/item_1.coreimg.png/1655224770198-Home_Articulos02.png</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -986,7 +708,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1637251107888-Home_Articulos01.png</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D9_sn_CG31O0E7K0SO6NLHKOP1U5ITKUSH31NS&amp;svrid=-9&amp;flavor=cors&amp;vi=APPKKUPKABTFHOWFLRMOJBJVSFIKOSFV-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=243407645&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -994,7 +716,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D19_sn_D28LJNQ7PPFF6OQ3CSR4O2IPO6AGVEEK&amp;svrid=-19&amp;flavor=cors&amp;vi=AEMPHWATDAKERJVFLJRVMRAOJRUVTMDS-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=3793988355&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D9_sn_CG31O0E7K0SO6NLHKOP1U5ITKUSH31NS&amp;svrid=-9&amp;flavor=cors&amp;vi=APPKKUPKABTFHOWFLRMOJBJVSFIKOSFV-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=3642547629&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -1002,39 +724,15 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par2-5050col/image_extension_copy/item_1.coreimg.png/1655224770198-Home_Articulos02.png</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_CG31O0E7K0SO6NLHKOP1U5ITKUSH31NS_app-3Ab90c0fbe356a6561_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=APPKKUPKABTFHOWFLRMOJBJVSFIKOSFV-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=2438259042&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>https://www.allerganpro.com/etc.clientlibs/settings/wcm/designs/allergan-pro/favicon/resources/icon-192x192.png</v>
-      </c>
-      <c r="B42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_D28LJNQ7PPFF6OQ3CSR4O2IPO6AGVEEK_app-3Ab90c0fbe356a6561_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=AEMPHWATDAKERJVFLJRVMRAOJRUVTMDS-0&amp;modifiedSince=1717538339236&amp;rf=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=2151055844&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_D28LJNQ7PPFF6OQ3CSR4O2IPO6AGVEEK_app-3Ab90c0fbe356a6561_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=AEMPHWATDAKERJVFLJRVMRAOJRUVTMDS-0&amp;modifiedSince=1717538339236&amp;rf=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=1009230223&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B44">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/report/allerganpro_responses.xlsx
+++ b/report/allerganpro_responses.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -730,9 +730,329 @@
         <v>200</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.allerganpro.com/co/es.html</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.js</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.css</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.allerganpro.com/content/dam/abbvie-pro/co/abbvieprologo/AbbviePRO.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.allerganpro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.allerganpro.com/content/dam/allergan-pro/colombia/home/Home_Articulos01.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr:content/header/header_area/image-extension/item_1.coreimg.png/1682019219951-AbbviePRO.png</v>
+      </c>
+      <c r="B61">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.allerganpro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro/co/es/jcr:content</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://consent.trustarc.com/v2/notice/hvz0wu</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.allerganpro.com/content/dam/allergan-pro/colombia/home/Home_Articulos02.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.allerganpro.com/content/dam/allergan-pro/colombia/home/New%20banner%20Home%20Allergan%20pro.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://consent.trustarc.com/v2/asset/16:19:49.763hvz0wu_AbbVieID-logo.png</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=hvz0wu&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;category=</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.25405217145246284&amp;session=e0b1cd18-5d87-4b2c-ad3c-b046de20bccc&amp;userType=NEW</v>
+      </c>
+      <c r="B72">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8466606062203768&amp;session=e0b1cd18-5d87-4b2c-ad3c-b046de20bccc&amp;userType=NEW</v>
+      </c>
+      <c r="B73">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr%3acontent/header/header_area/image-extension/item_1.coreimg.png/1707333003504.png</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1637251107888-Home_Articulos01.png</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par2-5050col/image_extension_copy/item_1.coreimg.png/1655224770198-Home_Articulos02.png</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D39_sn_V1FMRLJ2C0LR8N0PRONQV2QIDHO9TGRI&amp;svrid=-39&amp;flavor=cors&amp;vi=MLRPARGGUHLMQHRIUEVKEOTDAMQDALFW-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=4165458991&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D39_sn_V1FMRLJ2C0LR8N0PRONQV2QIDHO9TGRI&amp;svrid=-39&amp;flavor=cors&amp;vi=MLRPARGGUHLMQHRIUEVKEOTDAMQDALFW-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=3418595279&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_V1FMRLJ2C0LR8N0PRONQV2QIDHO9TGRI_app-3Ab90c0fbe356a6561_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=MLRPARGGUHLMQHRIUEVKEOTDAMQDALFW-0&amp;modifiedSince=1718839398116&amp;rf=https%3A%2F%2Fwww.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=1379614864&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B81"/>
   </ignoredErrors>
 </worksheet>
 </file>